--- a/data/trans_orig/P51_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P51_1-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>8139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3940</v>
+        <v>4038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14737</v>
+        <v>15595</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05917690384775208</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02864977854214332</v>
+        <v>0.02936025099285644</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1071558512560613</v>
+        <v>0.1133947512418595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -763,19 +763,19 @@
         <v>7417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2866</v>
+        <v>3249</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13937</v>
+        <v>15117</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1362678504131735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05265133887217212</v>
+        <v>0.05969432634986684</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2560598110181045</v>
+        <v>0.2777496998853765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -784,19 +784,19 @@
         <v>15555</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8459</v>
+        <v>8659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25556</v>
+        <v>23373</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08103523765686049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04406930513512571</v>
+        <v>0.04510642333478802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1331339359986779</v>
+        <v>0.1217595685873281</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>3646</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8973</v>
+        <v>8481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02650907337853221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006955886457937678</v>
+        <v>0.007021742720388823</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0652467040315724</v>
+        <v>0.06166743134240204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>3646</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8619</v>
+        <v>8750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01899270212232543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005054043227311454</v>
+        <v>0.005109314135021301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04490186125253699</v>
+        <v>0.04558149691663373</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>3861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9248</v>
+        <v>9193</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02807393646109614</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006887168043986998</v>
+        <v>0.006861089182769796</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06724148120607595</v>
+        <v>0.06684300338860898</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>3861</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9055</v>
+        <v>9705</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02011386459997844</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004997602640787474</v>
+        <v>0.004980223259615486</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04716994563454699</v>
+        <v>0.05055568423726343</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>121885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113864</v>
+        <v>114334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128726</v>
+        <v>128404</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8862400863126195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8279138129780342</v>
+        <v>0.8313328078192782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9359809554929788</v>
+        <v>0.9336345190886368</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -960,19 +960,19 @@
         <v>47011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40491</v>
+        <v>39311</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51562</v>
+        <v>51179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8637321495868265</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7439401889818955</v>
+        <v>0.7222503001146234</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9473486611278277</v>
+        <v>0.9403056736501333</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>159</v>
@@ -981,19 +981,19 @@
         <v>168897</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158250</v>
+        <v>158774</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177425</v>
+        <v>177242</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8798581956208357</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8243966234781761</v>
+        <v>0.8271245383803445</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9242875726211328</v>
+        <v>0.9233310781687043</v>
       </c>
     </row>
     <row r="8">
@@ -1085,19 +1085,19 @@
         <v>8035</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3823</v>
+        <v>2958</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17090</v>
+        <v>16359</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01659687131144322</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007897552610874398</v>
+        <v>0.006110890490285296</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03530185849448664</v>
+        <v>0.03379141351622381</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -1106,19 +1106,19 @@
         <v>11893</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5986</v>
+        <v>5929</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21531</v>
+        <v>20131</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05822994017116167</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02930550800209076</v>
+        <v>0.02902592174588692</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1054161371018593</v>
+        <v>0.09855891498115468</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1127,19 +1127,19 @@
         <v>19928</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11889</v>
+        <v>12097</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30034</v>
+        <v>30738</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02895023093285694</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0172712834774308</v>
+        <v>0.01757378195583586</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04363132260866349</v>
+        <v>0.04465387927253667</v>
       </c>
     </row>
     <row r="10">
@@ -1156,19 +1156,19 @@
         <v>8313</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3748</v>
+        <v>3741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16897</v>
+        <v>16973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01717154113951429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007741698385741697</v>
+        <v>0.007727787829113412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03490281826000118</v>
+        <v>0.03506053529967083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4220</v>
+        <v>4662</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00455280884420139</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02065921711584045</v>
+        <v>0.02282738803377639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1198,19 +1198,19 @@
         <v>9243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4081</v>
+        <v>4412</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17302</v>
+        <v>18358</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01342731227818308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005928616489373512</v>
+        <v>0.006408866230761684</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02513487127099719</v>
+        <v>0.02667002219594275</v>
       </c>
     </row>
     <row r="11">
@@ -1227,19 +1227,19 @@
         <v>19445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12706</v>
+        <v>12246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29895</v>
+        <v>29599</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04016723220744892</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02624687517783304</v>
+        <v>0.02529543617041978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06175294720744286</v>
+        <v>0.06114090827295876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1248,19 +1248,19 @@
         <v>7830</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3857</v>
+        <v>3779</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14833</v>
+        <v>14672</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03833379840947325</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01888308786197841</v>
+        <v>0.01849972112783838</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07262421717689915</v>
+        <v>0.07183327330102825</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1269,19 +1269,19 @@
         <v>27275</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19494</v>
+        <v>19324</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38103</v>
+        <v>38691</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03962321593219515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02831963860702675</v>
+        <v>0.0280730102289181</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05535421936216077</v>
+        <v>0.05620851607083244</v>
       </c>
     </row>
     <row r="12">
@@ -1298,19 +1298,19 @@
         <v>448314</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>434750</v>
+        <v>434840</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>458251</v>
+        <v>460096</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9260643553415936</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8980442854673281</v>
+        <v>0.8982310882778004</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9465896189455993</v>
+        <v>0.9504007210502284</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>175</v>
@@ -1319,19 +1319,19 @@
         <v>183596</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>172610</v>
+        <v>173038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>191188</v>
+        <v>191018</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8988834525751637</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8450935388790798</v>
+        <v>0.8471912705681082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9360541582356254</v>
+        <v>0.9352223449787911</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>605</v>
@@ -1340,19 +1340,19 @@
         <v>631910</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>616693</v>
+        <v>615512</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>645401</v>
+        <v>644564</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9179992408567649</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.895892256164647</v>
+        <v>0.8941762704191796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9375980545012061</v>
+        <v>0.9363816636329028</v>
       </c>
     </row>
     <row r="13">
@@ -1444,19 +1444,19 @@
         <v>5108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1852</v>
+        <v>1076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13950</v>
+        <v>13411</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04745676863167912</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0172113367472774</v>
+        <v>0.01000155890370236</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1296048231100778</v>
+        <v>0.1246036606793061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1478,19 +1478,19 @@
         <v>5108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>999</v>
+        <v>1036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13305</v>
+        <v>13886</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03198283007545148</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006254879080785352</v>
+        <v>0.00648463581174588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08330816476679108</v>
+        <v>0.08694803286699343</v>
       </c>
     </row>
     <row r="15">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7269</v>
+        <v>6577</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04225930925300846</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1395991535885943</v>
+        <v>0.1262992682789571</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6937</v>
+        <v>6955</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01377923473645783</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04343778473258967</v>
+        <v>0.0435516308861332</v>
       </c>
     </row>
     <row r="16">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6062</v>
+        <v>5682</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01051265477403219</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05632382549821061</v>
+        <v>0.05278887809723336</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9066</v>
+        <v>8544</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0557143730875624</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1740911741127499</v>
+        <v>0.1640747489814603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1612,19 +1612,19 @@
         <v>4033</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1136</v>
+        <v>1098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10850</v>
+        <v>11253</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02525130285283477</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007114121392728459</v>
+        <v>0.006876065535483782</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06793513258994266</v>
+        <v>0.07045943670595579</v>
       </c>
     </row>
     <row r="17">
@@ -1641,19 +1641,19 @@
         <v>101393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92919</v>
+        <v>92189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105634</v>
+        <v>105452</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9420305765942887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8633064865154655</v>
+        <v>0.8565228668104147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9814373612070457</v>
+        <v>0.9797479921594989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1662,19 +1662,19 @@
         <v>46972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40927</v>
+        <v>41111</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50859</v>
+        <v>50864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9020263176594291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7859319766836148</v>
+        <v>0.7894743652505061</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.976660599091574</v>
+        <v>0.9767626973654652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -1683,19 +1683,19 @@
         <v>148365</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139542</v>
+        <v>139167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154775</v>
+        <v>154359</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9289866323352559</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8737413324799723</v>
+        <v>0.871391832145336</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9691230304179468</v>
+        <v>0.9665188410665499</v>
       </c>
     </row>
     <row r="18">
@@ -1787,19 +1787,19 @@
         <v>21281</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13195</v>
+        <v>13215</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33621</v>
+        <v>33101</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02918150302859183</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01809302238788786</v>
+        <v>0.01812107128680595</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04610243265859221</v>
+        <v>0.04538930960096984</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1808,19 +1808,19 @@
         <v>19310</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11250</v>
+        <v>11222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30607</v>
+        <v>28677</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06214035933257377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03620174845695052</v>
+        <v>0.03611124254599381</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09849240871401643</v>
+        <v>0.09228324515906926</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1829,19 +1829,19 @@
         <v>40591</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29386</v>
+        <v>28811</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55722</v>
+        <v>56654</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03902938646926533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02825516214394416</v>
+        <v>0.02770272276201084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05357736517007439</v>
+        <v>0.0544735725962277</v>
       </c>
     </row>
     <row r="20">
@@ -1858,19 +1858,19 @@
         <v>11959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6560</v>
+        <v>5780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20514</v>
+        <v>19898</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01639816732310553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008994932324113091</v>
+        <v>0.007925119099332753</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02812982060391489</v>
+        <v>0.02728509563628007</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1879,19 +1879,19 @@
         <v>3131</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8246</v>
+        <v>9414</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01007407889677861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002997702731696172</v>
+        <v>0.00303280108486105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02653677468786022</v>
+        <v>0.03029381665810094</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1900,19 +1900,19 @@
         <v>15089</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8611</v>
+        <v>9242</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25249</v>
+        <v>25866</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01450857245620308</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008279190421664993</v>
+        <v>0.00888628648808128</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02427700116025118</v>
+        <v>0.02487033769393723</v>
       </c>
     </row>
     <row r="21">
@@ -1929,19 +1929,19 @@
         <v>24438</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16602</v>
+        <v>16528</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35028</v>
+        <v>34549</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03350991686874603</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02276557412915657</v>
+        <v>0.02266383365650332</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04803105158758734</v>
+        <v>0.04737534006327996</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1950,19 +1950,19 @@
         <v>10731</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5764</v>
+        <v>5588</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19143</v>
+        <v>20371</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03453219404781987</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01854910452808128</v>
+        <v>0.01798258162123952</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06160373913478862</v>
+        <v>0.06555532735693448</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>35</v>
@@ -1971,19 +1971,19 @@
         <v>35169</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24060</v>
+        <v>25030</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>47492</v>
+        <v>49220</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03381536637860549</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02313442364597224</v>
+        <v>0.02406707712498687</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04566427845374764</v>
+        <v>0.04732603569440786</v>
       </c>
     </row>
     <row r="22">
@@ -2000,19 +2000,19 @@
         <v>671592</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>654695</v>
+        <v>655370</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>685754</v>
+        <v>684880</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9209104127795567</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8977396197216582</v>
+        <v>0.8986657464052467</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9403298793813527</v>
+        <v>0.939130929013713</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>263</v>
@@ -2021,19 +2021,19 @@
         <v>277579</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>265160</v>
+        <v>264457</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>288225</v>
+        <v>287313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8932533677228277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8532878871571749</v>
+        <v>0.8510243321335093</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.927511708279641</v>
+        <v>0.9245763991456563</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>902</v>
@@ -2042,19 +2042,19 @@
         <v>949172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>928823</v>
+        <v>930387</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>968133</v>
+        <v>965558</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9126466746959261</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8930811724384885</v>
+        <v>0.8945844257796841</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.93087874616316</v>
+        <v>0.9284024344062692</v>
       </c>
     </row>
     <row r="23">
@@ -2385,19 +2385,19 @@
         <v>5589</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1993</v>
+        <v>1849</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11582</v>
+        <v>12892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06003808980218833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02141222003458502</v>
+        <v>0.01985733481760872</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1244031154564855</v>
+        <v>0.1384826075453767</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7080</v>
+        <v>6627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07147315996279043</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2382511256838037</v>
+        <v>0.2230167835014066</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2427,19 +2427,19 @@
         <v>7713</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3453</v>
+        <v>3126</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15805</v>
+        <v>15835</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06280492809611396</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02811635743858889</v>
+        <v>0.02545524398764292</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1286927940415923</v>
+        <v>0.1289402376063137</v>
       </c>
     </row>
     <row r="5">
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5193</v>
+        <v>4849</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0103172294932617</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05578032370383772</v>
+        <v>0.05208616567872528</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6431</v>
+        <v>4822</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007820864779424877</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05236337094966639</v>
+        <v>0.03926067586941572</v>
       </c>
     </row>
     <row r="6">
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7147</v>
+        <v>7503</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02395827677727068</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07677207981823563</v>
+        <v>0.08059870180592357</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7681</v>
+        <v>8178</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01816131386293633</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06254588597227681</v>
+        <v>0.06659014500952801</v>
       </c>
     </row>
     <row r="7">
@@ -2582,19 +2582,19 @@
         <v>84317</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77014</v>
+        <v>76381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88839</v>
+        <v>88917</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9056864039272793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8272479344976994</v>
+        <v>0.8204439845727439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.954265702095607</v>
+        <v>0.9550954893079429</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2603,7 +2603,7 @@
         <v>27592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22636</v>
+        <v>23089</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>29716</v>
@@ -2612,7 +2612,7 @@
         <v>0.9285268400372095</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7617488743161961</v>
+        <v>0.7769832164985941</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -2624,19 +2624,19 @@
         <v>111908</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103887</v>
+        <v>102780</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117231</v>
+        <v>117595</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9112128932615249</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8459017319821225</v>
+        <v>0.8368863205650416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9545539767800599</v>
+        <v>0.9575204375203701</v>
       </c>
     </row>
     <row r="8">
@@ -2728,19 +2728,19 @@
         <v>8637</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3977</v>
+        <v>3959</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16778</v>
+        <v>17442</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01675828420924586</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007716046645336051</v>
+        <v>0.0076809817664132</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03255369524959782</v>
+        <v>0.03384263929032639</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -2749,19 +2749,19 @@
         <v>11148</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6533</v>
+        <v>6171</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19315</v>
+        <v>18960</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04292899576003056</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02515443800098132</v>
+        <v>0.02376259277280965</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07437520279317698</v>
+        <v>0.07300999334218186</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -2770,19 +2770,19 @@
         <v>19785</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13181</v>
+        <v>11982</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30834</v>
+        <v>30674</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02552694078758408</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01700598161525355</v>
+        <v>0.01545923334922262</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03978204125816327</v>
+        <v>0.03957495843395894</v>
       </c>
     </row>
     <row r="10">
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7209</v>
+        <v>7387</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004116979051533957</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01398767901891123</v>
+        <v>0.01433214127838293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2823,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5337</v>
+        <v>4704</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003578049471386402</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02055178031030266</v>
+        <v>0.01811220246374988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -2841,19 +2841,19 @@
         <v>3051</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8180</v>
+        <v>8173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003936407407578017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001195496853212832</v>
+        <v>0.001196985678743551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01055356489393827</v>
+        <v>0.01054417510528183</v>
       </c>
     </row>
     <row r="11">
@@ -2870,19 +2870,19 @@
         <v>8477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4081</v>
+        <v>3992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16393</v>
+        <v>16370</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01644850440806063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007917982674071346</v>
+        <v>0.00774480478681659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03180796737283717</v>
+        <v>0.03176352723115274</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -2891,19 +2891,19 @@
         <v>5790</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2026</v>
+        <v>2009</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11695</v>
+        <v>12060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02229351963656589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007802519917893369</v>
+        <v>0.007735667372908709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04503424967503759</v>
+        <v>0.0464390857426069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -2912,19 +2912,19 @@
         <v>14267</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8002</v>
+        <v>8092</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23816</v>
+        <v>23116</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01840691242209046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01032403256284016</v>
+        <v>0.01044001750193517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03072664345689802</v>
+        <v>0.02982443029550819</v>
       </c>
     </row>
     <row r="12">
@@ -2941,19 +2941,19 @@
         <v>496150</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>486203</v>
+        <v>485402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>503502</v>
+        <v>502899</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9626762323311595</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9433761455896269</v>
+        <v>0.941822903168541</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9769419560997264</v>
+        <v>0.9757721799683897</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>240</v>
@@ -2962,19 +2962,19 @@
         <v>241829</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>231792</v>
+        <v>232249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>248363</v>
+        <v>248296</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9311994351320172</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.892551891778615</v>
+        <v>0.8943111792214165</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9563594686802854</v>
+        <v>0.9561019190397148</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>700</v>
@@ -2983,19 +2983,19 @@
         <v>737980</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>723434</v>
+        <v>724262</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>747369</v>
+        <v>748595</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9521297393827475</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9333635649007137</v>
+        <v>0.9344309676671027</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9642444247815763</v>
+        <v>0.9658257682889214</v>
       </c>
     </row>
     <row r="13">
@@ -3087,19 +3087,19 @@
         <v>4901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10629</v>
+        <v>10930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03324534766218593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01290740541712515</v>
+        <v>0.01285333576186649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07210121365481924</v>
+        <v>0.07414250685036168</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5941</v>
+        <v>5989</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01756608914442712</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.056007488159299</v>
+        <v>0.05646161334749088</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -3129,19 +3129,19 @@
         <v>6764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2862</v>
+        <v>2882</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13666</v>
+        <v>12826</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02668459056730724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01129173973442642</v>
+        <v>0.01136876828347455</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05391212975174953</v>
+        <v>0.05059698431158216</v>
       </c>
     </row>
     <row r="15">
@@ -3252,19 +3252,19 @@
         <v>142520</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136792</v>
+        <v>136491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145518</v>
+        <v>145526</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9667546523378141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9278987863451807</v>
+        <v>0.9258574931496383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9870925945828748</v>
+        <v>0.9871466642381336</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>102</v>
@@ -3273,7 +3273,7 @@
         <v>104206</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100128</v>
+        <v>100080</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>106069</v>
@@ -3282,7 +3282,7 @@
         <v>0.9824339108555729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9439925118407007</v>
+        <v>0.9435383866525097</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3294,19 +3294,19 @@
         <v>246726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>239824</v>
+        <v>240664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>250628</v>
+        <v>250608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9733154094326928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9460878702482505</v>
+        <v>0.9494030156884177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9887082602655736</v>
+        <v>0.9886312317165254</v>
       </c>
     </row>
     <row r="18">
@@ -3398,19 +3398,19 @@
         <v>19127</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11344</v>
+        <v>11932</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28991</v>
+        <v>31011</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02530399779992511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01500741891279835</v>
+        <v>0.01578500910750246</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03835222636953354</v>
+        <v>0.04102521439081933</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -3419,19 +3419,19 @@
         <v>15136</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8516</v>
+        <v>8301</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24509</v>
+        <v>23186</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03827133868202217</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02153311220083621</v>
+        <v>0.02098872480216935</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06197247963710221</v>
+        <v>0.05862682791549718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -3440,19 +3440,19 @@
         <v>34263</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24125</v>
+        <v>24728</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47676</v>
+        <v>47883</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0297580589502767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0209532992613384</v>
+        <v>0.02147676193871172</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04140748160631585</v>
+        <v>0.04158702193592189</v>
       </c>
     </row>
     <row r="20">
@@ -3469,19 +3469,19 @@
         <v>3082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9243</v>
+        <v>8235</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004077678259757854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001257336179938432</v>
+        <v>0.001271702122575627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01222708613426785</v>
+        <v>0.01089467719959921</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4634</v>
+        <v>4678</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002349556776469945</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0117181620334423</v>
+        <v>0.01182820429478907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -3511,19 +3511,19 @@
         <v>4012</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9852</v>
+        <v>9670</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00348409790802765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008385464247948874</v>
+        <v>0.0008397073409993414</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008556989345579575</v>
+        <v>0.008398304463247699</v>
       </c>
     </row>
     <row r="21">
@@ -3540,19 +3540,19 @@
         <v>10708</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5418</v>
+        <v>5413</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19181</v>
+        <v>18675</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01416551346554748</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00716698029401261</v>
+        <v>0.007161194594050364</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02537547580177952</v>
+        <v>0.0247056790965458</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -3561,19 +3561,19 @@
         <v>5790</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1940</v>
+        <v>1980</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11719</v>
+        <v>12778</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01463923027122465</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004904888557129405</v>
+        <v>0.00500589713565341</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0296333867862055</v>
+        <v>0.03231001310915026</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -3582,19 +3582,19 @@
         <v>16497</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9710</v>
+        <v>10118</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>26167</v>
+        <v>25284</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0143282271351903</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008433249084293054</v>
+        <v>0.00878732064791894</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02272663615504809</v>
+        <v>0.02195953509942438</v>
       </c>
     </row>
     <row r="22">
@@ -3611,19 +3611,19 @@
         <v>722987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>709886</v>
+        <v>710004</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>733378</v>
+        <v>732792</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9564528104747696</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9391218164147117</v>
+        <v>0.9392783327419413</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9701992948593489</v>
+        <v>0.9694241663202591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>368</v>
@@ -3632,19 +3632,19 @@
         <v>373627</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>362894</v>
+        <v>363866</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>381727</v>
+        <v>381814</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9447398742702833</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9176020482906569</v>
+        <v>0.920059848640814</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9652227643442435</v>
+        <v>0.9654412576108713</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1037</v>
@@ -3653,19 +3653,19 @@
         <v>1096613</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1081785</v>
+        <v>1080660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1110255</v>
+        <v>1109155</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9524296160065053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9395511782778049</v>
+        <v>0.9385739363855162</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9642777018137993</v>
+        <v>0.9633223353864073</v>
       </c>
     </row>
     <row r="23">
